--- a/Диплом мой/Экономика/Книга2.xlsx
+++ b/Диплом мой/Экономика/Книга2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ТЗ</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>В</t>
-  </si>
-  <si>
-    <t>Название задачи</t>
   </si>
   <si>
     <t>Длительность</t>
@@ -156,7 +153,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9458223972003504E-2"/>
+          <c:y val="4.6296296296296294E-2"/>
+          <c:w val="0.58443219597550311"/>
+          <c:h val="0.83309419655876349"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -166,21 +173,27 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$2</c:f>
+              <c:f>Лист1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ТЗ</c:v>
+                  <c:v>Начало</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>ТЗ</c:v>
                 </c:pt>
@@ -189,18 +202,42 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ТП</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>РП</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ОЭ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>В</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2</c:f>
+              <c:f>Лист1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -211,11 +248,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$3</c:f>
+              <c:f>Лист1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЭП</c:v>
+                  <c:v>Длительность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -223,9 +260,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>ТЗ</c:v>
                 </c:pt>
@@ -234,18 +271,45 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ТП</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>РП</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ОЭ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>В</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -258,20 +322,20 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="30110080"/>
-        <c:axId val="30112000"/>
+        <c:axId val="69563904"/>
+        <c:axId val="81797120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30110080"/>
+        <c:axId val="69563904"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30112000"/>
+        <c:crossAx val="81797120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -279,9 +343,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30112000"/>
+        <c:axId val="81797120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="42638"/>
+          <c:min val="41628"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -290,16 +356,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30110080"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="69563904"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -317,19 +384,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -637,7 +704,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,17 +717,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -670,11 +734,11 @@
       <c r="B2" s="3">
         <v>41628</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3">
         <v>41660</v>
-      </c>
-      <c r="D2" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -684,11 +748,11 @@
       <c r="B3" s="3">
         <v>41661</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
         <v>41682</v>
-      </c>
-      <c r="D3" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -698,11 +762,11 @@
       <c r="B4" s="3">
         <v>41683</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3">
         <v>41757</v>
-      </c>
-      <c r="D4" s="2">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -712,11 +776,11 @@
       <c r="B5" s="3">
         <v>41758</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
+        <v>513</v>
+      </c>
+      <c r="D5" s="3">
         <v>42270</v>
-      </c>
-      <c r="D5" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -726,11 +790,11 @@
       <c r="B6" s="3">
         <v>42271</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
+        <v>328</v>
+      </c>
+      <c r="D6" s="3">
         <v>42598</v>
-      </c>
-      <c r="D6" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -740,11 +804,11 @@
       <c r="B7" s="3">
         <v>42599</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3">
         <v>42634</v>
-      </c>
-      <c r="D7" s="2">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Диплом мой/Экономика/Книга2.xlsx
+++ b/Диплом мой/Экономика/Книга2.xlsx
@@ -1,40 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="336" windowWidth="22692" windowHeight="9264"/>
+    <workbookView xWindow="285" yWindow="330" windowWidth="19440" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ТЗ</t>
-  </si>
-  <si>
-    <t>ЭП</t>
-  </si>
-  <si>
-    <t>ТП</t>
-  </si>
-  <si>
-    <t>РП</t>
-  </si>
-  <si>
-    <t>ОЭ</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
   <si>
     <t>Длительность</t>
   </si>
@@ -44,12 +26,30 @@
   <si>
     <t>Конец</t>
   </si>
+  <si>
+    <t>Техническое задание</t>
+  </si>
+  <si>
+    <t>Эскизный проект</t>
+  </si>
+  <si>
+    <t>Технический проект</t>
+  </si>
+  <si>
+    <t>Рабочий проект</t>
+  </si>
+  <si>
+    <t>Опытная эксплуатация</t>
+  </si>
+  <si>
+    <t>Внедрение</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,35 +139,23 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.9458223972003504E-2"/>
-          <c:y val="4.6296296296296294E-2"/>
-          <c:w val="0.58443219597550311"/>
-          <c:h val="0.83309419655876349"/>
+          <c:x val="0.12985727929047036"/>
+          <c:y val="4.6296296296296315E-2"/>
+          <c:w val="0.82129203315234467"/>
+          <c:h val="0.83309419655876382"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -188,29 +176,28 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>ТЗ</c:v>
+                  <c:v>Техническое задание</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ЭП</c:v>
+                  <c:v>Эскизный проект</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ТП</c:v>
+                  <c:v>Технический проект</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>РП</c:v>
+                  <c:v>Рабочий проект</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ОЭ</c:v>
+                  <c:v>Опытная эксплуатация</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>В</c:v>
+                  <c:v>Внедрение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -219,7 +206,7 @@
             <c:numRef>
               <c:f>Лист1!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41628</c:v>
@@ -257,29 +244,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>ТЗ</c:v>
+                  <c:v>Техническое задание</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ЭП</c:v>
+                  <c:v>Эскизный проект</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ТП</c:v>
+                  <c:v>Технический проект</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>РП</c:v>
+                  <c:v>Рабочий проект</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ОЭ</c:v>
+                  <c:v>Опытная эксплуатация</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>В</c:v>
+                  <c:v>Внедрение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -312,51 +298,59 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="69563904"/>
-        <c:axId val="81797120"/>
+        <c:axId val="103317504"/>
+        <c:axId val="103319040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69563904"/>
+        <c:axId val="103317504"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81797120"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103319040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81797120"/>
+        <c:axId val="103319040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42638"/>
           <c:min val="41628"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69563904"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103317504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -369,11 +363,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -384,15 +377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -489,7 +482,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -524,7 +516,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -700,36 +691,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="38.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>41628</v>
@@ -741,9 +732,9 @@
         <v>41660</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="38.25" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>41661</v>
@@ -755,9 +746,9 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="38.25" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>41683</v>
@@ -769,9 +760,9 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="19.5" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>41758</v>
@@ -783,9 +774,9 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="38.25" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>42271</v>
@@ -797,9 +788,9 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="19.5" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>42599</v>
@@ -818,24 +809,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
